--- a/static/inputData/equipment_master.xlsx
+++ b/static/inputData/equipment_master.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -452,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F15" sqref="F15:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,10 +617,10 @@
       <c r="F6" s="2">
         <v>2829</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -645,10 +643,10 @@
       <c r="F7" s="2">
         <v>3690</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -671,10 +669,10 @@
       <c r="F8" s="2">
         <v>95001809003</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -697,39 +695,31 @@
       <c r="F9" s="2">
         <v>93502030005</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>22</v>
       </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/static/inputData/equipment_master.xlsx
+++ b/static/inputData/equipment_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>sr.no</t>
   </si>
@@ -110,6 +110,15 @@
   </si>
   <si>
     <t>PAO_TEST</t>
+  </si>
+  <si>
+    <t>AVM-08</t>
+  </si>
+  <si>
+    <t>26/3/2022</t>
+  </si>
+  <si>
+    <t>25/3/2023</t>
   </si>
 </sst>
 </file>
@@ -450,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:H23"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,19 +540,19 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>3145</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1">
-        <v>44815</v>
-      </c>
-      <c r="H3" s="1">
-        <v>44815</v>
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2">
+        <v>201202260</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -557,19 +566,19 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2">
-        <v>202003305488</v>
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>3145</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="G4" s="1">
-        <v>44296</v>
+        <v>44815</v>
       </c>
       <c r="H4" s="1">
-        <v>44630</v>
+        <v>44815</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -583,19 +592,19 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="2">
-        <v>200616197</v>
+        <v>202003305488</v>
       </c>
       <c r="G5" s="1">
-        <v>45546</v>
+        <v>44296</v>
       </c>
       <c r="H5" s="1">
-        <v>45546</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -603,25 +612,25 @@
         <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2">
-        <v>2829</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>22</v>
+        <v>200616197</v>
+      </c>
+      <c r="G6" s="1">
+        <v>45546</v>
+      </c>
+      <c r="H6" s="1">
+        <v>45546</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -635,19 +644,19 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="2">
-        <v>3690</v>
+        <v>2829</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -655,25 +664,25 @@
         <v>121</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2">
-        <v>95001809003</v>
+        <v>3690</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -690,10 +699,10 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2">
-        <v>93502030005</v>
+        <v>95001809003</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>21</v>
@@ -702,9 +711,31 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>121</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2">
+        <v>93502030005</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F18" s="1"/>
@@ -717,6 +748,10 @@
     <row r="20" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
